--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N2">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O2">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P2">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q2">
-        <v>668.5910987341663</v>
+        <v>2134.962885749795</v>
       </c>
       <c r="R2">
-        <v>668.5910987341663</v>
+        <v>19214.66597174816</v>
       </c>
       <c r="S2">
-        <v>0.003180146308022207</v>
+        <v>0.007092061157678409</v>
       </c>
       <c r="T2">
-        <v>0.003180146308022207</v>
+        <v>0.007092061157678405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N3">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q3">
-        <v>8.114635524031957</v>
+        <v>25.29002074350522</v>
       </c>
       <c r="R3">
-        <v>8.114635524031957</v>
+        <v>227.610186691547</v>
       </c>
       <c r="S3">
-        <v>3.859717583969287E-05</v>
+        <v>8.401006639930617E-05</v>
       </c>
       <c r="T3">
-        <v>3.859717583969287E-05</v>
+        <v>8.401006639930613E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N4">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q4">
-        <v>208.500150606237</v>
+        <v>611.1980003994236</v>
       </c>
       <c r="R4">
-        <v>208.500150606237</v>
+        <v>5500.782003594812</v>
       </c>
       <c r="S4">
-        <v>0.0009917287044770148</v>
+        <v>0.002030318010311051</v>
       </c>
       <c r="T4">
-        <v>0.0009917287044770148</v>
+        <v>0.00203031801031105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N5">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q5">
-        <v>288.0958434609693</v>
+        <v>819.0305457850989</v>
       </c>
       <c r="R5">
-        <v>288.0958434609693</v>
+        <v>7371.274912065889</v>
       </c>
       <c r="S5">
-        <v>0.001370324754059018</v>
+        <v>0.002720709928723033</v>
       </c>
       <c r="T5">
-        <v>0.001370324754059018</v>
+        <v>0.002720709928723032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N6">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q6">
-        <v>116.0347722332305</v>
+        <v>329.125170301466</v>
       </c>
       <c r="R6">
-        <v>116.0347722332305</v>
+        <v>2962.126532713194</v>
       </c>
       <c r="S6">
-        <v>0.0005519181353421278</v>
+        <v>0.00109330979563589</v>
       </c>
       <c r="T6">
-        <v>0.0005519181353421278</v>
+        <v>0.001093309795635889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N7">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O7">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P7">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q7">
-        <v>23.62099429396049</v>
+        <v>75.22513815386901</v>
       </c>
       <c r="R7">
-        <v>23.62099429396049</v>
+        <v>677.026243384821</v>
       </c>
       <c r="S7">
-        <v>0.0001123530031105294</v>
+        <v>0.0002498878476731373</v>
       </c>
       <c r="T7">
-        <v>0.0001123530031105294</v>
+        <v>0.0002498878476731372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N8">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O8">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P8">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q8">
-        <v>11558.75726194726</v>
+        <v>13423.92122208009</v>
       </c>
       <c r="R8">
-        <v>11558.75726194726</v>
+        <v>120815.2909987208</v>
       </c>
       <c r="S8">
-        <v>0.0549791035230664</v>
+        <v>0.04459247086602813</v>
       </c>
       <c r="T8">
-        <v>0.0549791035230664</v>
+        <v>0.04459247086602811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N9">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q9">
-        <v>140.2876922367655</v>
+        <v>159.0150575598211</v>
       </c>
       <c r="R9">
-        <v>140.2876922367655</v>
+        <v>1431.13551803839</v>
       </c>
       <c r="S9">
-        <v>0.0006672768862349002</v>
+        <v>0.0005282267531362456</v>
       </c>
       <c r="T9">
-        <v>0.0006672768862349002</v>
+        <v>0.0005282267531362454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N10">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q10">
-        <v>3604.598736806041</v>
+        <v>3843.005357712938</v>
       </c>
       <c r="R10">
-        <v>3604.598736806041</v>
+        <v>34587.04821941644</v>
       </c>
       <c r="S10">
-        <v>0.0171452347876875</v>
+        <v>0.01276594980086227</v>
       </c>
       <c r="T10">
-        <v>0.0171452347876875</v>
+        <v>0.01276594980086227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N11">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q11">
-        <v>4980.667449874813</v>
+        <v>5149.78578713566</v>
       </c>
       <c r="R11">
-        <v>4980.667449874813</v>
+        <v>46348.07208422093</v>
       </c>
       <c r="S11">
-        <v>0.02369049069333107</v>
+        <v>0.01710689960705451</v>
       </c>
       <c r="T11">
-        <v>0.02369049069333107</v>
+        <v>0.01710689960705451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N12">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q12">
-        <v>2006.03592947701</v>
+        <v>2069.42724289042</v>
       </c>
       <c r="R12">
-        <v>2006.03592947701</v>
+        <v>18624.84518601378</v>
       </c>
       <c r="S12">
-        <v>0.009541688136387694</v>
+        <v>0.006874360517414946</v>
       </c>
       <c r="T12">
-        <v>0.009541688136387694</v>
+        <v>0.006874360517414945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N13">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O13">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P13">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q13">
-        <v>408.365202358591</v>
+        <v>472.99010921353</v>
       </c>
       <c r="R13">
-        <v>408.365202358591</v>
+        <v>4256.91098292177</v>
       </c>
       <c r="S13">
-        <v>0.001942384654932066</v>
+        <v>0.00157120988093489</v>
       </c>
       <c r="T13">
-        <v>0.001942384654932066</v>
+        <v>0.001571209880934889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N14">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O14">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P14">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q14">
-        <v>24337.23580542476</v>
+        <v>56517.95217443502</v>
       </c>
       <c r="R14">
-        <v>24337.23580542476</v>
+        <v>508661.5695699152</v>
       </c>
       <c r="S14">
-        <v>0.1157597980897742</v>
+        <v>0.1877450779136454</v>
       </c>
       <c r="T14">
-        <v>0.1157597980897742</v>
+        <v>0.1877450779136453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N15">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q15">
-        <v>295.37904198447</v>
+        <v>669.491817591909</v>
       </c>
       <c r="R15">
-        <v>295.37904198447</v>
+        <v>6025.42635832718</v>
       </c>
       <c r="S15">
-        <v>0.001404967208825399</v>
+        <v>0.002223962274294796</v>
       </c>
       <c r="T15">
-        <v>0.001404967208825399</v>
+        <v>0.002223962274294796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N16">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q16">
-        <v>7589.567585296447</v>
+        <v>16179.98120072859</v>
       </c>
       <c r="R16">
-        <v>7589.567585296447</v>
+        <v>145619.8308065573</v>
       </c>
       <c r="S16">
-        <v>0.03609969588521553</v>
+        <v>0.05374773349530817</v>
       </c>
       <c r="T16">
-        <v>0.03609969588521553</v>
+        <v>0.05374773349530814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N17">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q17">
-        <v>10486.91268870769</v>
+        <v>21681.84258614251</v>
       </c>
       <c r="R17">
-        <v>10486.91268870769</v>
+        <v>195136.5832752826</v>
       </c>
       <c r="S17">
-        <v>0.04988088643819207</v>
+        <v>0.07202418115014468</v>
       </c>
       <c r="T17">
-        <v>0.04988088643819207</v>
+        <v>0.07202418115014465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N18">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q18">
-        <v>4223.755923187514</v>
+        <v>8712.788760244996</v>
       </c>
       <c r="R18">
-        <v>4223.755923187514</v>
+        <v>78415.09884220496</v>
       </c>
       <c r="S18">
-        <v>0.02009024922788026</v>
+        <v>0.02894271893625422</v>
       </c>
       <c r="T18">
-        <v>0.02009024922788026</v>
+        <v>0.02894271893625421</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N19">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O19">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P19">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q19">
-        <v>859.8225569845326</v>
+        <v>1991.402655696514</v>
       </c>
       <c r="R19">
-        <v>859.8225569845326</v>
+        <v>17922.62390126862</v>
       </c>
       <c r="S19">
-        <v>0.004089736664645254</v>
+        <v>0.006615173274453833</v>
       </c>
       <c r="T19">
-        <v>0.004089736664645254</v>
+        <v>0.006615173274453829</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N20">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O20">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P20">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q20">
-        <v>20784.50664047011</v>
+        <v>27017.36046716206</v>
       </c>
       <c r="R20">
-        <v>20784.50664047011</v>
+        <v>243156.2442044586</v>
       </c>
       <c r="S20">
-        <v>0.09886128035789886</v>
+        <v>0.08974805793163171</v>
       </c>
       <c r="T20">
-        <v>0.09886128035789886</v>
+        <v>0.08974805793163169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N21">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q21">
-        <v>252.2598584599105</v>
+        <v>320.0381661011045</v>
       </c>
       <c r="R21">
-        <v>252.2598584599105</v>
+        <v>2880.343494909941</v>
       </c>
       <c r="S21">
-        <v>0.001199871280162608</v>
+        <v>0.001063123983058445</v>
       </c>
       <c r="T21">
-        <v>0.001199871280162608</v>
+        <v>0.001063123983058445</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N22">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q22">
-        <v>6481.648907709121</v>
+        <v>7734.540400593693</v>
       </c>
       <c r="R22">
-        <v>6481.648907709121</v>
+        <v>69610.86360534324</v>
       </c>
       <c r="S22">
-        <v>0.03082989271435537</v>
+        <v>0.02569310872506355</v>
       </c>
       <c r="T22">
-        <v>0.03082989271435537</v>
+        <v>0.02569310872506355</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N23">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q23">
-        <v>8956.042015580542</v>
+        <v>10364.60335530431</v>
       </c>
       <c r="R23">
-        <v>8956.042015580542</v>
+        <v>93281.43019773878</v>
       </c>
       <c r="S23">
-        <v>0.04259931668887587</v>
+        <v>0.03442982609277616</v>
       </c>
       <c r="T23">
-        <v>0.04259931668887587</v>
+        <v>0.03442982609277615</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N24">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q24">
-        <v>3607.175594429988</v>
+        <v>4164.987327977798</v>
       </c>
       <c r="R24">
-        <v>3607.175594429988</v>
+        <v>37484.88595180018</v>
       </c>
       <c r="S24">
-        <v>0.01715749158302117</v>
+        <v>0.01383553084137119</v>
       </c>
       <c r="T24">
-        <v>0.01715749158302117</v>
+        <v>0.01383553084137118</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N25">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O25">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P25">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q25">
-        <v>734.3063850039853</v>
+        <v>951.9531638047072</v>
       </c>
       <c r="R25">
-        <v>734.3063850039853</v>
+        <v>8567.578474242364</v>
       </c>
       <c r="S25">
-        <v>0.003492720354262508</v>
+        <v>0.003162261087539883</v>
       </c>
       <c r="T25">
-        <v>0.003492720354262508</v>
+        <v>0.003162261087539882</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N26">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O26">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P26">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q26">
-        <v>45256.65594695669</v>
+        <v>56567.53761710747</v>
       </c>
       <c r="R26">
-        <v>45256.65594695669</v>
+        <v>509107.8385539673</v>
       </c>
       <c r="S26">
-        <v>0.2152627930518855</v>
+        <v>0.1879097941222085</v>
       </c>
       <c r="T26">
-        <v>0.2152627930518855</v>
+        <v>0.1879097941222084</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N27">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P27">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q27">
-        <v>549.2763345808214</v>
+        <v>670.0791893359952</v>
       </c>
       <c r="R27">
-        <v>549.2763345808214</v>
+        <v>6030.712704023957</v>
       </c>
       <c r="S27">
-        <v>0.002612626926694538</v>
+        <v>0.002225913444668368</v>
       </c>
       <c r="T27">
-        <v>0.002612626926694538</v>
+        <v>0.002225913444668368</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N28">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O28">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P28">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q28">
-        <v>14113.28927163433</v>
+        <v>16194.17654042869</v>
       </c>
       <c r="R28">
-        <v>14113.28927163433</v>
+        <v>145747.5888638582</v>
       </c>
       <c r="S28">
-        <v>0.06712970731469861</v>
+        <v>0.05379488851518185</v>
       </c>
       <c r="T28">
-        <v>0.06712970731469861</v>
+        <v>0.05379488851518184</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N29">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O29">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P29">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q29">
-        <v>19501.08891959004</v>
+        <v>21700.86492720806</v>
       </c>
       <c r="R29">
-        <v>19501.08891959004</v>
+        <v>195307.7843448725</v>
       </c>
       <c r="S29">
-        <v>0.09275671789149093</v>
+        <v>0.07208737082294861</v>
       </c>
       <c r="T29">
-        <v>0.09275671789149093</v>
+        <v>0.0720873708229486</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N30">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O30">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P30">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q30">
-        <v>7854.345914543418</v>
+        <v>8720.432835639924</v>
       </c>
       <c r="R30">
-        <v>7854.345914543418</v>
+        <v>78483.89552075931</v>
       </c>
       <c r="S30">
-        <v>0.0373591111358721</v>
+        <v>0.02896811153233005</v>
       </c>
       <c r="T30">
-        <v>0.0373591111358721</v>
+        <v>0.02896811153233004</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N31">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O31">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P31">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q31">
-        <v>1598.895369547594</v>
+        <v>1993.149792286266</v>
       </c>
       <c r="R31">
-        <v>1598.895369547594</v>
+        <v>17938.34813057639</v>
       </c>
       <c r="S31">
-        <v>0.007605128479884658</v>
+        <v>0.006620977028527519</v>
       </c>
       <c r="T31">
-        <v>0.007605128479884658</v>
+        <v>0.006620977028527516</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N32">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O32">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P32">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q32">
-        <v>4453.310101953357</v>
+        <v>5221.094171015306</v>
       </c>
       <c r="R32">
-        <v>4453.310101953357</v>
+        <v>46989.84753913776</v>
       </c>
       <c r="S32">
-        <v>0.02118212118889708</v>
+        <v>0.01734377652088997</v>
       </c>
       <c r="T32">
-        <v>0.02118212118889708</v>
+        <v>0.01734377652088996</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N33">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P33">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q33">
-        <v>54.04946075599678</v>
+        <v>61.84724838549054</v>
       </c>
       <c r="R33">
-        <v>54.04946075599678</v>
+        <v>556.625235469415</v>
       </c>
       <c r="S33">
-        <v>0.0002570856737387052</v>
+        <v>0.000205448287139653</v>
       </c>
       <c r="T33">
-        <v>0.0002570856737387052</v>
+        <v>0.000205448287139653</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N34">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O34">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P34">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q34">
-        <v>1388.764864969781</v>
+        <v>1494.696857974149</v>
       </c>
       <c r="R34">
-        <v>1388.764864969781</v>
+        <v>13452.27172176734</v>
       </c>
       <c r="S34">
-        <v>0.00660564501442848</v>
+        <v>0.00496518304823812</v>
       </c>
       <c r="T34">
-        <v>0.00660564501442848</v>
+        <v>0.004965183048238118</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N35">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O35">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P35">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q35">
-        <v>1918.930916736036</v>
+        <v>2002.95547853529</v>
       </c>
       <c r="R35">
-        <v>1918.930916736036</v>
+        <v>18026.59930681761</v>
       </c>
       <c r="S35">
-        <v>0.009127374088230477</v>
+        <v>0.006653550206747737</v>
       </c>
       <c r="T35">
-        <v>0.009127374088230477</v>
+        <v>0.006653550206747735</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N36">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O36">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P36">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q36">
-        <v>772.8772105139242</v>
+        <v>804.88214557037</v>
       </c>
       <c r="R36">
-        <v>772.8772105139242</v>
+        <v>7243.93931013333</v>
       </c>
       <c r="S36">
-        <v>0.003676182067370913</v>
+        <v>0.002673710835541642</v>
       </c>
       <c r="T36">
-        <v>0.003676182067370913</v>
+        <v>0.002673710835541641</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N37">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O37">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P37">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q37">
-        <v>157.333253025107</v>
+        <v>183.964570508705</v>
       </c>
       <c r="R37">
-        <v>157.333253025107</v>
+        <v>1655.681134578345</v>
       </c>
       <c r="S37">
-        <v>0.0007483539112085236</v>
+        <v>0.0006111056981843381</v>
       </c>
       <c r="T37">
-        <v>0.0007483539112085236</v>
+        <v>0.0006111056981843376</v>
       </c>
     </row>
   </sheetData>
